--- a/SANTA_BARBARA_DO_SUL.xlsx
+++ b/SANTA_BARBARA_DO_SUL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B976286-59DB-450C-AD15-2BC3C1477832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BB322F2-661F-4E00-8A91-56CB8EEB0C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1150,7 +1150,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{5A1DD0BA-A19E-4D1A-A14D-93AE94D30B59}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{3E892414-048B-4698-B0FE-2B28C51ED326}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1180,10 +1180,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B6E8744-C71B-42B6-89EE-347BFF24A6F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1DD4B51-E904-47CA-BE53-79A0836E28E1}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1221,7 +1221,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{398BC15B-E638-4B64-ACB8-02DDCD7BFA7E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{231910F2-91DC-4524-92CB-2143270D48FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1284,7 +1284,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E347257-A026-4123-9CE5-472D83C1B81A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61DA0385-BE5B-41FE-BE3D-BF57E3C8582D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1303,7 +1303,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9869826D-6FCB-08C0-6655-9BBD8A349D4F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4556AA9B-DEAF-C7D5-82AA-BB9B98FA5FC2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1352,7 +1352,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8911803C-374D-E514-20D7-68224E36FC9D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E784C1DE-A3D9-4F33-9B3E-6FD22A713C45}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1371,7 +1371,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{824BC8C4-83D5-B343-F279-2D38C35D4CA5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{499E52C2-E28E-D19A-6A5A-BF46C7ADACAC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1402,7 +1402,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDC37188-C613-8336-7DCD-FE5D19CB2071}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A9BB065-C3DD-0F6E-753E-481C099AD601}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1433,7 +1433,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF9E86AA-364B-4C63-C43D-D5B51F7C2E0F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F082B964-5286-5F61-A23B-55699175D887}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1476,7 +1476,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42EBEFE0-6576-457A-B024-2150DDCDF53F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FADEF427-95F5-4F4B-A9EA-62A71A05827B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1514,7 +1514,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B64B86F2-C8DE-4809-AC3E-B2C4206932A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26135956-BB71-4CD2-BF66-42A696AA817F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1557,7 +1557,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78FA5F52-C84D-4D42-9480-86158106DE09}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87F81825-F18D-4DF2-B761-7C543B57EE1F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1870,7 +1870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A05CB66B-A2B2-49C0-BAF1-87800D0F8798}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12674683-F646-4877-8BA5-A9D3F9861F45}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/SANTA_BARBARA_DO_SUL.xlsx
+++ b/SANTA_BARBARA_DO_SUL.xlsx
@@ -8,24 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BB322F2-661F-4E00-8A91-56CB8EEB0C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30CEF39C-2A6A-4B6A-9B16-A19BDE16D4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="6" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="5" r:id="rId1"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="1" r:id="rId2"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="2" r:id="rId3"/>
     <sheet name="CPIP" sheetId="3" r:id="rId4"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="4" r:id="rId5"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="5" r:id="rId6"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="282">
   <si>
     <t>Número</t>
   </si>
@@ -871,15 +870,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>SANTA BÁRBARA DO SUL</t>
   </si>
 </sst>
 </file>
@@ -1065,7 +1055,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1127,30 +1117,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{3E892414-048B-4698-B0FE-2B28C51ED326}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{F9187685-DD29-461D-9BDC-07EEDCA90C7C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1180,10 +1152,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1DD4B51-E904-47CA-BE53-79A0836E28E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{845E3683-3A6A-4D7E-8021-5FFB9D444405}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1221,7 +1193,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{231910F2-91DC-4524-92CB-2143270D48FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D72705A-7981-41DF-A527-1D07D555AE6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1284,7 +1256,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61DA0385-BE5B-41FE-BE3D-BF57E3C8582D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2D17E2F-75B3-42AB-9495-ED1D2511245D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1303,7 +1275,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4556AA9B-DEAF-C7D5-82AA-BB9B98FA5FC2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{286DE280-6FA8-F0CE-015C-D38AF3644E63}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1352,7 +1324,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E784C1DE-A3D9-4F33-9B3E-6FD22A713C45}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63E65B41-C00D-2DF6-7834-DFE504055563}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1371,7 +1343,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{499E52C2-E28E-D19A-6A5A-BF46C7ADACAC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90FBC8EE-D6B6-1004-13DD-020FE5507B96}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1402,7 +1374,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A9BB065-C3DD-0F6E-753E-481C099AD601}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B10F3795-D6DA-8F7E-A1CE-A4F52EEC2EEE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1433,7 +1405,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F082B964-5286-5F61-A23B-55699175D887}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{481E0C36-A05E-D69C-BAC8-781776E23058}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1476,7 +1448,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FADEF427-95F5-4F4B-A9EA-62A71A05827B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DFB0A9F-6425-45ED-A989-5B59BAD6FB06}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1514,7 +1486,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26135956-BB71-4CD2-BF66-42A696AA817F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15E4A984-6D80-4C97-B3A4-42C0384697D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1557,7 +1529,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87F81825-F18D-4DF2-B761-7C543B57EE1F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E28D61E-98F6-4F4B-862D-80146B07A750}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1870,7 +1842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12674683-F646-4877-8BA5-A9D3F9861F45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2CE40E-D6F9-407B-94CF-25E991A02EB5}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1882,98 +1854,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="32"/>
-    <col min="6" max="6" width="2" style="32" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="32" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="32"/>
+    <col min="1" max="5" width="12.5703125" style="26"/>
+    <col min="6" max="6" width="2" style="26" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="26" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="31"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="31"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="31"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="31"/>
+      <c r="F4" s="25"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="31"/>
+      <c r="F5" s="25"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="31"/>
+      <c r="F6" s="25"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="31"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="31"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="31"/>
+      <c r="F9" s="25"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="31"/>
+      <c r="F10" s="25"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="31"/>
+      <c r="F11" s="25"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="31"/>
+      <c r="F12" s="25"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="31"/>
+      <c r="F13" s="25"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="31"/>
+      <c r="F14" s="25"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="31"/>
+      <c r="F15" s="25"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="31"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="31"/>
+      <c r="F17" s="25"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="31"/>
+      <c r="F18" s="25"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="31"/>
+      <c r="F19" s="25"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="31"/>
+      <c r="F20" s="25"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="31"/>
+      <c r="F21" s="25"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="31"/>
+      <c r="F22" s="25"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="31"/>
+      <c r="F23" s="25"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="31"/>
+      <c r="F24" s="25"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="31"/>
+      <c r="F25" s="25"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="31"/>
+      <c r="F26" s="25"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="31"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="31"/>
+      <c r="F28" s="25"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="31"/>
+      <c r="F29" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5310,52 +5282,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>282</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="E1" s="27">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>284</v>
-      </c>
-      <c r="B2" s="30">
-        <v>3</v>
-      </c>
-      <c r="C2" s="28">
-        <v>1.9838645681788121E-4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/SANTA_BARBARA_DO_SUL.xlsx
+++ b/SANTA_BARBARA_DO_SUL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30CEF39C-2A6A-4B6A-9B16-A19BDE16D4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DD7EE6A-C641-441F-A3E0-DC90365D7252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1122,7 +1122,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{F9187685-DD29-461D-9BDC-07EEDCA90C7C}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{D8EED542-7E38-45B9-BAF2-4E28DC3FF765}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1152,10 +1152,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{845E3683-3A6A-4D7E-8021-5FFB9D444405}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{466D6625-FAE1-4A8C-A2B2-7A1D47B4ECC9}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1193,7 +1193,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D72705A-7981-41DF-A527-1D07D555AE6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10D53B57-A7FD-40CD-8083-1583BFAED9AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1256,7 +1256,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2D17E2F-75B3-42AB-9495-ED1D2511245D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C29D0DB-BFB5-4785-9253-3972665FD483}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1275,7 +1275,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{286DE280-6FA8-F0CE-015C-D38AF3644E63}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{345C38D4-361F-06E1-9C3C-1798FAE31E3A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1324,7 +1324,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63E65B41-C00D-2DF6-7834-DFE504055563}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{789EE3BB-BED4-31B7-B6F5-590D7B044AB8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1343,7 +1343,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90FBC8EE-D6B6-1004-13DD-020FE5507B96}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A50931E5-8EF1-4FF7-F0CE-6A83C8778C5F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1374,7 +1374,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B10F3795-D6DA-8F7E-A1CE-A4F52EEC2EEE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC4FC246-43AF-B829-153C-013A9852A1E1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1405,7 +1405,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{481E0C36-A05E-D69C-BAC8-781776E23058}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02D9461A-2ADD-A554-0892-B6814FC76929}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1448,7 +1448,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DFB0A9F-6425-45ED-A989-5B59BAD6FB06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52CEFD50-1C99-4C43-9682-58792A4BEC25}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1486,7 +1486,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15E4A984-6D80-4C97-B3A4-42C0384697D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F852936-896F-402D-B701-0887B8D22969}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1511,50 +1511,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E28D61E-98F6-4F4B-862D-80146B07A750}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1842,7 +1798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2CE40E-D6F9-407B-94CF-25E991A02EB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{746C7992-5E54-4F0B-B07C-23C6B636CBC3}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/SANTA_BARBARA_DO_SUL.xlsx
+++ b/SANTA_BARBARA_DO_SUL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DD7EE6A-C641-441F-A3E0-DC90365D7252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63BA3D0E-1E11-472A-8B53-780482227E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -882,14 +882,6 @@
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -917,6 +909,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1002,21 +1002,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -1050,6 +1035,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1057,72 +1057,72 @@
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{D8EED542-7E38-45B9-BAF2-4E28DC3FF765}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{E19D1A14-55DC-46F4-8278-A2985E640B35}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1152,7 +1152,7 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{466D6625-FAE1-4A8C-A2B2-7A1D47B4ECC9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5780F67F-FEC2-4515-8992-7DBB13237DC0}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
               <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
@@ -1193,7 +1193,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10D53B57-A7FD-40CD-8083-1583BFAED9AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{519D25A9-3021-499D-845C-30BFC039E8B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1256,7 +1256,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C29D0DB-BFB5-4785-9253-3972665FD483}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{896953E8-4323-434E-B682-7ECC262C72F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1275,7 +1275,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{345C38D4-361F-06E1-9C3C-1798FAE31E3A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08056965-75CA-A3CB-7DBF-0AE7144897EF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1324,7 +1324,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{789EE3BB-BED4-31B7-B6F5-590D7B044AB8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEB4F0CB-6C01-438D-8482-ACA95239993C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1343,7 +1343,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A50931E5-8EF1-4FF7-F0CE-6A83C8778C5F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45FC4FAF-B84C-2433-C49F-D3C9C797628E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1374,7 +1374,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC4FC246-43AF-B829-153C-013A9852A1E1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4745393-412A-03F0-6F5C-8BEA49679FB8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1405,7 +1405,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02D9461A-2ADD-A554-0892-B6814FC76929}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B97AD07-B210-4F74-66C7-DACBA13305A0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1448,7 +1448,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52CEFD50-1C99-4C43-9682-58792A4BEC25}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4A0DB3E-A117-4BF4-9266-A6F70689DF9A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1486,7 +1486,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F852936-896F-402D-B701-0887B8D22969}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C35C61C-1AF7-43F5-8AE7-7832C27E01C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1798,7 +1798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{746C7992-5E54-4F0B-B07C-23C6B636CBC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ACFB9B0-1596-4D6D-82DB-D19F4E6FE957}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
